--- a/documentation/Risk Lists/04-07-2016.xlsx
+++ b/documentation/Risk Lists/04-07-2016.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Risk List</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Problems with implementing tests that are useful for finding bugs</t>
+  </si>
+  <si>
+    <t>Getting into template for method which means not being able to think creatively about the simplest solution (quality goal)</t>
   </si>
 </sst>
 </file>
@@ -74,10 +77,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -359,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,6 +403,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
